--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -190,9 +190,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -276,7 +278,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="80">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -316,6 +318,7 @@
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -354,6 +357,7 @@
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,7 +690,7 @@
   <dimension ref="A1:CW26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,6 +698,7 @@
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101">
@@ -712,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -764,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:101">
@@ -1621,43 +1626,43 @@
       </c>
       <c r="G14" s="2">
         <f>IF(G13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="H14" s="2">
         <f>IF(H13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="I14" s="2">
         <f>IF(I13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="J14" s="2">
         <f>IF(J13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="K14" s="2">
         <f>IF(K13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="L14" s="2">
         <f>IF(L13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="M14" s="2">
         <f>IF(M13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="N14" s="2">
         <f>IF(N13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="O14" s="2">
         <f>IF(O13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="P14" s="2">
         <f>IF(P13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
-        <v>4383000</v>
+        <v>8766000</v>
       </c>
       <c r="Q14" s="2">
         <f>IF(Q13="Operating",Capacity*1000*365.25*24*Load_factor,0)</f>
@@ -2410,403 +2415,403 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f>IF(B14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(B13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <f>IF(C14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(C13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <f>IF(D14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(D13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f>IF(E14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(E13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f>IF(F14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(F13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f>IF(G14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(G13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="H16" s="2">
-        <f>IF(H14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(H13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="I16" s="2">
-        <f>IF(I14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(I13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="J16" s="2">
-        <f>IF(J14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(J13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="K16" s="2">
-        <f>IF(K14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(K13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="L16" s="2">
-        <f>IF(L14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(L13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="M16" s="2">
-        <f>IF(M14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(M13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="N16" s="2">
-        <f>IF(N14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(N13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="O16" s="2">
-        <f>IF(O14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(O13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="P16" s="2">
-        <f>IF(P14="Operating",Operating_cost*Capacity*1000000,0)</f>
-        <v>0</v>
+        <f>IF(P13="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <v>100000000</v>
       </c>
       <c r="Q16" s="2">
-        <f>IF(Q14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(Q13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>IF(R14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(R13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <f>IF(S14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(S13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <f>IF(T14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(T13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <f>IF(U14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(U13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="V16" s="2">
-        <f>IF(V14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(V13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="W16" s="2">
-        <f>IF(W14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(W13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="X16" s="2">
-        <f>IF(X14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(X13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="2">
-        <f>IF(Y14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(Y13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="2">
-        <f>IF(Z14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(Z13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AA16" s="2">
-        <f>IF(AA14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AA13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <f>IF(AB14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AB13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AC16" s="2">
-        <f>IF(AC14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AC13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="2">
-        <f>IF(AD14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AD13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AE16" s="2">
-        <f>IF(AE14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AE13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="2">
-        <f>IF(AF14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AF13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="2">
-        <f>IF(AG14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AG13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <f>IF(AH14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AH13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <f>IF(AI14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AI13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="2">
-        <f>IF(AJ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AJ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <f>IF(AK14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AK13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AL16" s="2">
-        <f>IF(AL14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AL13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AM16" s="2">
-        <f>IF(AM14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AM13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AN16" s="2">
-        <f>IF(AN14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AN13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <f>IF(AO14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AO13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AP16" s="2">
-        <f>IF(AP14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AP13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AQ16" s="2">
-        <f>IF(AQ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AQ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AR16" s="2">
-        <f>IF(AR14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AR13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AS16" s="2">
-        <f>IF(AS14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AS13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <f>IF(AT14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AT13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <f>IF(AU14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AU13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AV16" s="2">
-        <f>IF(AV14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AV13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AW16" s="2">
-        <f>IF(AW14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AW13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AX16" s="2">
-        <f>IF(AX14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AX13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <f>IF(AY14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AY13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <f>IF(AZ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(AZ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <f>IF(BA14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BA13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <f>IF(BB14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BB13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <f>IF(BC14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BC13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <f>IF(BD14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BD13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <f>IF(BE14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BE13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <f>IF(BF14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BF13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <f>IF(BG14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BG13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BH16" s="2">
-        <f>IF(BH14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BH13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BI16" s="2">
-        <f>IF(BI14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BI13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BJ16" s="2">
-        <f>IF(BJ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BJ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BK16" s="2">
-        <f>IF(BK14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BK13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BL16" s="2">
-        <f>IF(BL14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BL13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BM16" s="2">
-        <f>IF(BM14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BM13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BN16" s="2">
-        <f>IF(BN14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BN13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <f>IF(BO14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BO13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <f>IF(BP14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BP13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <f>IF(BQ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BQ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <f>IF(BR14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BR13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <f>IF(BS14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BS13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <f>IF(BT14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BT13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BU16" s="2">
-        <f>IF(BU14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BU13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BV16" s="2">
-        <f>IF(BV14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BV13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BW16" s="2">
-        <f>IF(BW14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BW13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BX16" s="2">
-        <f>IF(BX14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BX13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BY16" s="2">
-        <f>IF(BY14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BY13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="BZ16" s="2">
-        <f>IF(BZ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(BZ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CA16" s="2">
-        <f>IF(CA14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CA13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CB16" s="2">
-        <f>IF(CB14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CB13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CC16" s="2">
-        <f>IF(CC14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CC13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CD16" s="2">
-        <f>IF(CD14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CD13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CE16" s="2">
-        <f>IF(CE14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CE13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CF16" s="2">
-        <f>IF(CF14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CF13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CG16" s="2">
-        <f>IF(CG14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CG13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CH16" s="2">
-        <f>IF(CH14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CH13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CI16" s="2">
-        <f>IF(CI14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CI13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CJ16" s="2">
-        <f>IF(CJ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CJ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CK16" s="2">
-        <f>IF(CK14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CK13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CL16" s="2">
-        <f>IF(CL14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CL13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CM16" s="2">
-        <f>IF(CM14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CM13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CN16" s="2">
-        <f>IF(CN14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CN13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CO16" s="2">
-        <f>IF(CO14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CO13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CP16" s="2">
-        <f>IF(CP14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CP13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CQ16" s="2">
-        <f>IF(CQ14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CQ13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CR16" s="2">
-        <f>IF(CR14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CR13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CS16" s="2">
-        <f>IF(CS14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CS13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CT16" s="2">
-        <f>IF(CT14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CT13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CU16" s="2">
-        <f>IF(CU14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CU13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CV16" s="2">
-        <f>IF(CV14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CV13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
       <c r="CW16" s="2">
-        <f>IF(CW14="Operating",Operating_cost*Capacity*1000000,0)</f>
+        <f>IF(CW13="Operating",Operating_cost*Capacity*1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2836,43 +2841,43 @@
       </c>
       <c r="G17" s="2">
         <f>G14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="H17" s="2">
         <f>H14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="I17" s="2">
         <f>I14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="J17" s="2">
         <f>J14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="K17" s="2">
         <f>K14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="L17" s="2">
         <f>L14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="M17" s="2">
         <f>M14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="N17" s="2">
         <f>N14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="O17" s="2">
         <f>O14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="P17" s="2">
         <f>P14*Fuel_cost/Efficiency</f>
-        <v>175320000</v>
+        <v>350640000</v>
       </c>
       <c r="Q17" s="2">
         <f>Q14*Fuel_cost/Efficiency</f>
@@ -3241,43 +3246,43 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="5"/>
-        <v>175320000</v>
+        <v>450640000</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="5"/>
@@ -4051,43 +4056,43 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="56"/>
-        <v>98963569.417028219</v>
+        <v>254374531.83943415</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="56"/>
-        <v>89966881.288207456</v>
+        <v>231249574.39948556</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="56"/>
-        <v>81788073.898370415</v>
+        <v>210226885.81771415</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="56"/>
-        <v>74352794.45306401</v>
+        <v>191115350.74337649</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="56"/>
-        <v>67593449.502785459</v>
+        <v>173741227.94852406</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="56"/>
-        <v>61448590.457077682</v>
+        <v>157946570.86229458</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="56"/>
-        <v>55862354.960979708</v>
+        <v>143587791.69299507</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="56"/>
-        <v>50783959.055436097</v>
+        <v>130534356.08454098</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="56"/>
-        <v>46167235.504941903</v>
+        <v>118667596.44049178</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="56"/>
-        <v>41970214.095401727</v>
+        <v>107879633.12771979</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="56"/>
@@ -4456,43 +4461,43 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="107"/>
-        <v>2474089.2354257056</v>
+        <v>4948178.4708514111</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="107"/>
-        <v>2249172.0322051863</v>
+        <v>4498344.0644103726</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="107"/>
-        <v>2044701.8474592604</v>
+        <v>4089403.6949185207</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="107"/>
-        <v>1858819.8613266002</v>
+        <v>3717639.7226532004</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="107"/>
-        <v>1689836.2375696364</v>
+        <v>3379672.4751392729</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="107"/>
-        <v>1536214.761426942</v>
+        <v>3072429.5228538839</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="107"/>
-        <v>1396558.8740244927</v>
+        <v>2793117.7480489854</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="107"/>
-        <v>1269598.9763859024</v>
+        <v>2539197.9527718048</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="107"/>
-        <v>1154180.8876235476</v>
+        <v>2308361.7752470952</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="107"/>
-        <v>1049255.3523850432</v>
+        <v>2098510.7047700863</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="107"/>
@@ -4841,7 +4846,7 @@
       </c>
       <c r="B23" s="3">
         <f>SUM(20:20)</f>
-        <v>1427054476.5149822</v>
+        <v>2477480872.8382659</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -4853,7 +4858,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(21:21)</f>
-        <v>16722428.065832317</v>
+        <v>33444856.131664634</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -4865,7 +4870,7 @@
       </c>
       <c r="B26" s="3">
         <f>B23/B24</f>
-        <v>85.337755432225521</v>
+        <v>74.07658932916317</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
